--- a/DB/GradesDatabase.xlsx
+++ b/DB/GradesDatabase.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Spring 2019\Introduction to Software Testing\Homework\GroupProject\DB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C29E1E-7C2E-4C29-8067-B96A1E313B9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23985" yWindow="3375" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="StudentsInfo" sheetId="1" r:id="rId1"/>
@@ -208,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -498,14 +492,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -830,26 +816,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -895,7 +881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -915,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -938,7 +924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -961,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -984,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1030,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1116,7 +1102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1159,7 +1145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1194,7 +1180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1202,17 +1188,17 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -1233,7 +1219,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1254,7 +1240,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1275,7 +1261,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1294,7 +1280,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1314,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1322,13 +1308,13 @@
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1368,7 +1354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1384,7 +1370,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1400,7 +1386,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1408,7 +1394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1402,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1424,7 +1410,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1418,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1426,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1460,22 +1446,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1489,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1517,7 +1503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1517,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1559,7 +1545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1559,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +1573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1601,7 +1587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1601,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1629,7 +1615,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1643,7 +1629,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1657,7 +1643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1671,7 +1657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1697,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1705,14 +1691,14 @@
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1735,7 +1721,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1730,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1753,7 +1739,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1748,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +1757,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1771,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1799,7 +1785,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1813,7 +1799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1827,7 +1813,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1841,7 +1827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1855,7 +1841,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1869,7 +1855,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1897,16 +1883,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="28.5" customHeight="1">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" ht="28.5" customHeight="1">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" ht="28.5" customHeight="1">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="3:3" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1919,22 +1905,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
@@ -1948,7 +1934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -1962,7 +1948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +1962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>

--- a/DB/GradesDatabase.xlsx
+++ b/DB/GradesDatabase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="StudentsInfo" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -455,6 +455,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -819,15 +828,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="17" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
@@ -839,7 +848,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -862,10 +871,10 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
         <v>1234501</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2">
@@ -885,7 +894,7 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="15">
         <v>1234502</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -905,7 +914,7 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="15">
         <v>1234503</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -928,7 +937,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="15">
         <v>1234504</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -951,7 +960,7 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="15">
         <v>1234505</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -974,7 +983,7 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="15">
         <v>1234506</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -997,7 +1006,7 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="15">
         <v>1234507</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1020,7 +1029,7 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="15">
         <v>1234508</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1043,7 +1052,7 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="15">
         <v>1234509</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1063,7 +1072,7 @@
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="15">
         <v>1234510</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1083,7 +1092,7 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="15">
         <v>1234511</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1106,7 +1115,7 @@
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="15">
         <v>1234512</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1126,7 +1135,7 @@
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="15">
         <v>1234513</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1149,7 +1158,7 @@
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="15">
         <v>1234514</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1305,7 +1314,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1450,7 +1459,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1908,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
